--- a/Plotly/INPUT/Plotly生成グラフイメージ.xlsx
+++ b/Plotly/INPUT/Plotly生成グラフイメージ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\9921349-Z100\Documents\目標管理\2023\SMR工数モニター\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asds\電子センター(技術部)\TJ000\06他社授受_D\A_008_NSCS\02_共有情報\0298_個人フォルダ\zb109_nakamura\目標管理\2023\SMR工数モニター\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C6E5D7-0E4C-41C7-A305-429A1DB6D4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913FBDB-4353-440C-937F-3B8C1F093BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21660" yWindow="1245" windowWidth="26070" windowHeight="13905" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="5" xr2:uid="{549CD01E-4A24-4E7A-B7AC-A17503469783}"/>
   </bookViews>
   <sheets>
     <sheet name="Plotly生成グラフイメージ" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
     <sheet name="各メンバーの作業工数情報" sheetId="4" r:id="rId3"/>
     <sheet name="数藤さん案" sheetId="6" r:id="rId4"/>
     <sheet name="小熊さん案" sheetId="7" r:id="rId5"/>
+    <sheet name="案まとめ" sheetId="8" r:id="rId6"/>
+    <sheet name="グラフ例" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="183">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="1"/>
@@ -860,26 +862,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>全日</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日毎</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↓ 全日か1日毎かを選択</t>
     <rPh sb="2" eb="3">
       <t>ゼン</t>
@@ -949,6 +931,1115 @@
     </rPh>
     <rPh sb="34" eb="35">
       <t>アト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMR担当者</t>
+    <rPh sb="3" eb="6">
+      <t>タントウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMR照査者</t>
+    <rPh sb="3" eb="5">
+      <t>ショウサ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小熊</t>
+    <rPh sb="0" eb="2">
+      <t>オグマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高橋</t>
+    <rPh sb="0" eb="2">
+      <t>タカハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木村</t>
+    <rPh sb="0" eb="2">
+      <t>キムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数藤</t>
+    <rPh sb="0" eb="2">
+      <t>ストウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>田中</t>
+    <rPh sb="0" eb="2">
+      <t>タナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>伊藤</t>
+    <rPh sb="0" eb="2">
+      <t>イトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮田</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全日を選択した場合</t>
+    <rPh sb="0" eb="1">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日毎を選択した場合</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・メンバ情報</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DropDown(Toal/Weekly)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>weeklyを選択したら</t>
+    <rPh sb="7" eb="9">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dropdown(This, Last, Next Week)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初回表示は全SMRまとめてのグラフ</t>
+    <rPh sb="0" eb="2">
+      <t>ショカイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チェック欄にチェック付けたらそのSMRの分だけグラフ表示</t>
+    <rPh sb="4" eb="5">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現するためにはSMR開始終了の日付は必ず取り扱う必要アリ</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>カナラ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>アツカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフ仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横：日付</t>
+    <rPh sb="0" eb="1">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦：進捗率</t>
+    <rPh sb="0" eb="1">
+      <t>タテ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これ以外の情報は載せない</t>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←を実現するために必要な情報を整理する</t>
+    <rPh sb="2" eb="4">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数字・グラフ両方表示する前提で考える</t>
+    <rPh sb="0" eb="2">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>リョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゼンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カンガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフにする情報は？</t>
+    <rPh sb="6" eb="8">
+      <t>ジョウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→着地予測系を折れ線で</t>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMR開始日0% - SMR終了日100%の線：予実通り作業が進んだ場合はこうなる</t>
+    <rPh sb="3" eb="5">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際には進みが良い日、悪い日がある</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リーダが知りたいこと：今、進捗が良いか悪いか</t>
+    <rPh sb="4" eb="5">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>イマ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シンチョク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残工数が順調に減っているか、が見えれば良い</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実際の残工数</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>順調な残工数</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>開始日</t>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積もり80</t>
+    <rPh sb="0" eb="2">
+      <t>ミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓2023/11/8向けに検討</t>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・縦横はトップページと同じ</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>タテヨコ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・情報はいくつか削る</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ケズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予定工数[h]</t>
+    <rPh sb="0" eb="2">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>　※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>担当者・照査者は消すか迷いどころ。必要な情報だと思うが、スペースが足りないなら削除候補</t>
+    </r>
+    <rPh sb="5" eb="8">
+      <t>タントウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ショウサ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>マヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>コウホ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■全日</t>
+    <rPh sb="1" eb="3">
+      <t>ゼンジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>■日付別</t>
+    <rPh sb="1" eb="3">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>（全日でチェックつけた</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>SMR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>だけ表示）</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ゼンジツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・リーダーが知りたいのは一日に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>8h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>前後作業できているか</t>
+    </r>
+    <rPh sb="6" eb="7">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イチニチ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ゼンゴ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サギョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023/9/19～2023/9/26</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・過去情報や</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>weekly</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報は不要か？</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Daily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報が取得できれば</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>OK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>な気がする。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">　今回の仕組みだと複数日の情報取得が難しい？ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>WBS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>各日付の情報</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を使えばいけるか。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Daily</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>情報だとしても、各日付の情報が必要で手間が変わらないかも。</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>コンカイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>テマ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→他に観点あったら募集</t>
+    <rPh sb="1" eb="2">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンテン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ボシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　メンバ単位で日別の予実情報やオンスケ判定は不要（全日・トップページ情報で十分なはず）</t>
+    <rPh sb="4" eb="6">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>フヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ゼン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ジツ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ジュウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・過去の日付に遡って情報を見るのは必要</t>
+    <rPh sb="1" eb="3">
+      <t>カコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サカノボ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→リーダーが有休や不在となった時に必要だから</t>
+    <rPh sb="7" eb="9">
+      <t>ユウキュウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フザイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・7日分を1日ごとに表示</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→これは横に長くなって見づらいので不採用</t>
+    <rPh sb="5" eb="6">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>フサイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・7日分をひとまとめに表示</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　→あって困る機能ではないけど、トップページで十分か</t>
+    <rPh sb="5" eb="6">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジュウブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グラフパターン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②残工数・(見積を日付で割る)</t>
+    <rPh sb="1" eb="2">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①見積もり・実績・着地</t>
+    <rPh sb="1" eb="3">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チャクチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実現するために必要な情報①②共通</t>
+    <rPh sb="0" eb="2">
+      <t>ジツゲン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キョウツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・WBSの実績・見積・残工数</t>
+    <rPh sb="5" eb="7">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SMR開始日・終了日 → WBSからは拾ってこれない</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次回までに案を考える</t>
+    <rPh sb="0" eb="2">
+      <t>ジカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>アン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カンガ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -957,7 +2048,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,8 +2134,31 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1102,6 +2216,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,7 +2343,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1360,6 +2480,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2695,6 +3833,942 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>順調な残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A379-491B-8CFB-2A7BC4CD69EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実際の残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A379-491B-8CFB-2A7BC4CD69EB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1756736159"/>
+        <c:axId val="1756737407"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1756736159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756737407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1756737407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756736159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$G$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>順調な残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7DE5-487B-BC3C-6E5977FDCA61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$G$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実際の残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$7:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7DE5-487B-BC3C-6E5977FDCA61}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1756736159"/>
+        <c:axId val="1756737407"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1756736159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756737407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1756737407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756736159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2776,6 +4850,86 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4330,6 +6484,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -5424,16 +8610,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>205520</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>216327</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>691295</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>206802</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>244247</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>147328</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1177697</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>118753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5456,8 +8642,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10470539" y="3601365"/>
-          <a:ext cx="5218862" cy="6957521"/>
+          <a:off x="8492270" y="6159927"/>
+          <a:ext cx="5220327" cy="6855676"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5497,8 +8683,8 @@
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -66451"/>
-            <a:gd name="adj2" fmla="val 40393"/>
+            <a:gd name="adj1" fmla="val -80236"/>
+            <a:gd name="adj2" fmla="val -54061"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -6042,16 +9228,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209024</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>37346</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>389999</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>27821</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6074,7 +9260,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14478000" y="3552825"/>
+          <a:off x="18087975" y="3543300"/>
           <a:ext cx="4209524" cy="6028571"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6086,16 +9272,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1285875</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>1218545</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>94392</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246995</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>180117</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6118,7 +9304,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9124950" y="3486150"/>
+          <a:off x="12801600" y="3810000"/>
           <a:ext cx="5238095" cy="6866667"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6215,6 +9401,1918 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1133475</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>885825</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7226A7A3-9E6B-44D1-A509-2BAB62B0CD6A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6591300" y="9001125"/>
+          <a:ext cx="3314700" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51458"/>
+            <a:gd name="adj2" fmla="val -67523"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>判定条件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>日</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>より少ない場合</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>案②残工数の減り方と実績工数から判定</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　　残工数が</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>減りで、実績工数は</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>7h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> → </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="吹き出し: 四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DB94E63-AA83-4D3C-9938-E436122305FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7877175" y="5391150"/>
+          <a:ext cx="3314700" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51458"/>
+            <a:gd name="adj2" fmla="val -67523"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>判定条件</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・予定工数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実績工数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>残工数 ⇒ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>OK</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・予定工数 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>&lt;</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実績工数</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>+</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>残工数 ⇒ </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>NG</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>501161</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>167053</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219808</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>212481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F56BB06-4673-DE12-DEA5-708669680F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1878623" y="9127880"/>
+          <a:ext cx="4972050" cy="1254370"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34190"/>
+            <a:gd name="adj2" fmla="val -139842"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・予定工数は載せない</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>8h</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>前後働くのが当たり前の為</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・判定欄</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>　行を使わずに、実績工数・残工数の増減がよろしくない時に色で表現する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>708227</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>225031</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1010479</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>223632</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF09DF8B-68DA-ACC7-52F6-8592F13C4424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4998618" y="11530792"/>
+          <a:ext cx="6274013" cy="1439775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -34850"/>
+            <a:gd name="adj2" fmla="val -178960"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>からは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実績工数は大変だが何日分でも取得できる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>残工数は当日分しか取得できないので、日ごとのデータを残すのは難しい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>（データ量が膨大になる）</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>そうすると日ごとの</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR×</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>実績工数の表にしかならない。表示する価値ほとんどなし。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1552575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="吹き出し: 四角形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFC179F5-B429-4DD5-AE21-35A47E989859}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="571500"/>
+          <a:ext cx="5067300" cy="600075"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 36595"/>
+            <a:gd name="adj2" fmla="val 122788"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>■稼働可能工数について</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ユーザにアサインメンバーを手動入力させて、工数側を自動計算</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>156883</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>484966</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="吹き出し: 四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89FE368-678C-4EC0-96E2-675031533201}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3216089" y="1411941"/>
+          <a:ext cx="3835524" cy="960344"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -105891"/>
+            <a:gd name="adj2" fmla="val 145054"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>■</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の選択について</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・チェック欄：あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>照査者・担当者でフィルタかけられるようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>デフォルトは全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を表示しておく</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42334</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>10582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="吹き出し: 四角形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55562BA2-A7B7-E1B0-F3B2-F14B47F3BC59}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3101540" y="6834964"/>
+          <a:ext cx="5463489" cy="1154829"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -66413"/>
+            <a:gd name="adj2" fmla="val -82471"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>■メンバの欄について</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・上に表示されている全</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の工数やオンスケ情報をメンバごとに表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・表示</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が増減した場合は、それに反応してメンバ側の表示情報も変わる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・指定した日付に絞って表示できるようにする</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>291041</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>146236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>698499</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="吹き出し: 四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C514E99D-D689-04FE-A3F6-060915EBDC4B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1662641" y="8480611"/>
+          <a:ext cx="5608108" cy="2835089"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17081"/>
+            <a:gd name="adj2" fmla="val 47401"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>最初のログイン時にチーム指定で</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>表示できるようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>一覧か</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>WBS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>から</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Diag</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を絞って拾ってくる</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップページを初めて表示した時に</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>文字・数字ばかりで、見る気が失せてしまうかも</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップページは目を引くような表示を混ぜた方が良い？グラフとか</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>振り返りに使える情報も欲しい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>・プロセス、タスク工数</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442912</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="グラフ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6F0F6E-09DA-41F4-8891-AB617119C058}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>311772</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>197722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>487828</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC0CF72F-09D9-ACB1-F597-FBD8945EBE2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7693647" y="9008347"/>
+          <a:ext cx="5595781" cy="897654"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17081"/>
+            <a:gd name="adj2" fmla="val 47401"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11/8</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>まずはトップページだけで全てやりきれるようにする</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>83172</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>83422</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>335428</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{904645BF-49D5-F298-E4AC-8C84D5013490}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9170022" y="10560922"/>
+          <a:ext cx="5595781" cy="2297828"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 17081"/>
+            <a:gd name="adj2" fmla="val 47401"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>課題</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>トップページを初めて表示したときは上半分の</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>情報のみ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>チェックを入れて初めてメンバ情報とグラフ表示する</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>→</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SMR</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>が増えた時にグラフの日付をどうするかなどの課題あり</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>課題</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>残工数の表現</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>○人日のような表現にもできるのでは</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>グラフや表の表示も考慮して決めたい</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>423862</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19FDF3E3-E160-44AD-BB06-BFEC9E4C2F00}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6485,11 +11583,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B4:N86"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" bestFit="1" customWidth="1"/>
@@ -6498,7 +11594,7 @@
     <col min="7" max="8" width="10.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -6506,7 +11602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -6515,7 +11611,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:9">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -6524,7 +11620,7 @@
       </c>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:9">
       <c r="B7" t="s">
         <v>9</v>
       </c>
@@ -6532,7 +11628,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:9">
       <c r="B8" t="s">
         <v>10</v>
       </c>
@@ -6540,7 +11636,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:9">
       <c r="B9" t="s">
         <v>25</v>
       </c>
@@ -6548,7 +11644,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:9">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -6556,7 +11652,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9">
       <c r="B11" t="s">
         <v>27</v>
       </c>
@@ -6564,7 +11660,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:9">
       <c r="B12" t="s">
         <v>28</v>
       </c>
@@ -6572,7 +11668,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9">
       <c r="B13" t="s">
         <v>29</v>
       </c>
@@ -6580,7 +11676,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9">
       <c r="B14" t="s">
         <v>30</v>
       </c>
@@ -6588,7 +11684,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:9">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -6596,7 +11692,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:9">
       <c r="B16" t="s">
         <v>32</v>
       </c>
@@ -6604,7 +11700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:14">
       <c r="B17" t="s">
         <v>33</v>
       </c>
@@ -6612,7 +11708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:14">
       <c r="B18" t="s">
         <v>34</v>
       </c>
@@ -6620,7 +11716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:14">
       <c r="B19" t="s">
         <v>35</v>
       </c>
@@ -6628,12 +11724,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:14">
       <c r="B22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:14">
       <c r="C24" t="s">
         <v>5</v>
       </c>
@@ -6650,7 +11746,7 @@
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:14">
       <c r="B25" t="s">
         <v>0</v>
       </c>
@@ -6663,7 +11759,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:14">
       <c r="C26" t="s">
         <v>11</v>
       </c>
@@ -6681,7 +11777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:14">
       <c r="C27" s="1">
         <v>0</v>
       </c>
@@ -6689,14 +11785,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:14">
       <c r="C28" s="1"/>
       <c r="F28" t="s">
         <v>41</v>
       </c>
       <c r="N28" s="1"/>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:14">
       <c r="B31" t="s">
         <v>3</v>
       </c>
@@ -6710,7 +11806,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:14">
       <c r="B32" t="s">
         <v>4</v>
       </c>
@@ -6724,7 +11820,7 @@
         <v>45079</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5">
       <c r="B33" t="s">
         <v>4</v>
       </c>
@@ -6738,7 +11834,7 @@
         <v>45082</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5">
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -6752,7 +11848,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5">
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -6766,7 +11862,7 @@
         <v>45092</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5">
       <c r="B36" t="s">
         <v>9</v>
       </c>
@@ -6780,7 +11876,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5">
       <c r="B37" t="s">
         <v>9</v>
       </c>
@@ -6794,7 +11890,7 @@
         <v>45097</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5">
       <c r="B38" t="s">
         <v>11</v>
       </c>
@@ -6808,7 +11904,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:5">
       <c r="B39" t="s">
         <v>11</v>
       </c>
@@ -6822,17 +11918,17 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:5">
       <c r="B40" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:13">
       <c r="B53" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:13">
       <c r="I54" t="s">
         <v>13</v>
       </c>
@@ -6840,11 +11936,11 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:13">
       <c r="I55" s="9"/>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:13">
       <c r="B56" t="s">
         <v>5</v>
       </c>
@@ -6856,7 +11952,7 @@
       <c r="I56" s="9"/>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:13">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -6864,7 +11960,7 @@
       <c r="I57" s="9"/>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:13">
       <c r="B58" t="s">
         <v>9</v>
       </c>
@@ -6876,7 +11972,7 @@
       <c r="I58" s="9"/>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:13">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6885,7 +11981,7 @@
       <c r="I59" s="9"/>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:13">
       <c r="D60" s="2">
         <v>45078</v>
       </c>
@@ -6917,7 +12013,7 @@
         <v>45087</v>
       </c>
     </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:13">
       <c r="B63" t="s">
         <v>3</v>
       </c>
@@ -6928,7 +12024,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:13">
       <c r="B64" t="s">
         <v>4</v>
       </c>
@@ -6939,7 +12035,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:4">
       <c r="B65" t="s">
         <v>4</v>
       </c>
@@ -6950,7 +12046,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:4">
       <c r="B66" t="s">
         <v>4</v>
       </c>
@@ -6961,7 +12057,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:4">
       <c r="B67" t="s">
         <v>5</v>
       </c>
@@ -6972,7 +12068,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:4">
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -6983,7 +12079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:4">
       <c r="B69" t="s">
         <v>5</v>
       </c>
@@ -6994,7 +12090,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:4">
       <c r="B70" t="s">
         <v>9</v>
       </c>
@@ -7005,7 +12101,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:4">
       <c r="B71" t="s">
         <v>9</v>
       </c>
@@ -7016,7 +12112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:4">
       <c r="B72" t="s">
         <v>9</v>
       </c>
@@ -7027,7 +12123,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:4">
       <c r="B73" t="s">
         <v>11</v>
       </c>
@@ -7038,7 +12134,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:4">
       <c r="B74" t="s">
         <v>11</v>
       </c>
@@ -7049,7 +12145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:4">
       <c r="B75" t="s">
         <v>11</v>
       </c>
@@ -7060,17 +12156,17 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:4">
       <c r="B76" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:4">
       <c r="B80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:12">
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -7082,7 +12178,7 @@
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:12">
       <c r="C83" t="s">
         <v>15</v>
       </c>
@@ -7095,7 +12191,7 @@
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:12">
       <c r="B84" t="s">
         <v>9</v>
       </c>
@@ -7106,13 +12202,13 @@
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:12">
       <c r="C85" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="11"/>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:12">
       <c r="D86" t="s">
         <v>8</v>
       </c>
@@ -7153,9 +12249,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0E56BFF-B47A-45C3-8748-BDA5CB9B3594}">
   <dimension ref="C5:M28"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="15.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -7165,7 +12261,7 @@
     <col min="10" max="10" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:10">
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
@@ -7173,12 +12269,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:10">
       <c r="C7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:10">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -7201,7 +12297,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:10">
       <c r="C9" s="12" t="s">
         <v>64</v>
       </c>
@@ -7231,7 +12327,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="10" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="3:10">
       <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
@@ -7261,7 +12357,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:10">
       <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
@@ -7291,7 +12387,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="12" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:10">
       <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
@@ -7321,7 +12417,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="13" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:10">
       <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
@@ -7351,7 +12447,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="14" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:10">
       <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
@@ -7381,7 +12477,7 @@
         <v>NG</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:13">
       <c r="C19" s="26" t="s">
         <v>44</v>
       </c>
@@ -7389,12 +12485,12 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:13">
       <c r="C21" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:13">
       <c r="C23" t="s">
         <v>5</v>
       </c>
@@ -7408,7 +12504,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:13">
       <c r="D24" t="s">
         <v>15</v>
       </c>
@@ -7423,7 +12519,7 @@
       <c r="K24" s="8"/>
       <c r="L24" s="8"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:13">
       <c r="C25" t="s">
         <v>9</v>
       </c>
@@ -7436,7 +12532,7 @@
       </c>
       <c r="G25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:13">
       <c r="D26" t="s">
         <v>15</v>
       </c>
@@ -7444,13 +12540,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:13">
       <c r="C27" t="s">
         <v>63</v>
       </c>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:13">
       <c r="E28" t="s">
         <v>8</v>
       </c>
@@ -7490,18 +12586,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CDD32DD-DD7D-4EBE-AE10-D6BD4FF6EF0E}">
   <dimension ref="C5:K21"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:I21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="5" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:10">
       <c r="C5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="3:10">
       <c r="D6" s="24">
         <v>45168</v>
       </c>
@@ -7520,7 +12614,7 @@
       <c r="I6" s="24"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="3:10">
       <c r="C7" t="s">
         <v>55</v>
       </c>
@@ -7540,7 +12634,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="3:10">
       <c r="C8" t="s">
         <v>56</v>
       </c>
@@ -7560,7 +12654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="3:10">
       <c r="C9" t="s">
         <v>72</v>
       </c>
@@ -7580,7 +12674,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:10">
       <c r="C15" t="s">
         <v>71</v>
       </c>
@@ -7591,7 +12685,7 @@
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
     </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="3:10">
       <c r="D16" s="12" t="s">
         <v>44</v>
       </c>
@@ -7611,7 +12705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:11">
       <c r="C17" t="s">
         <v>50</v>
       </c>
@@ -7638,7 +12732,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:11">
       <c r="C18" t="s">
         <v>51</v>
       </c>
@@ -7665,7 +12759,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:11">
       <c r="C19" t="s">
         <v>52</v>
       </c>
@@ -7692,7 +12786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:11">
       <c r="C20" t="s">
         <v>53</v>
       </c>
@@ -7716,7 +12810,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:11">
       <c r="C21" t="s">
         <v>54</v>
       </c>
@@ -7749,11 +12843,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E506D57-AEBC-4999-BC25-5C9CE86AF421}">
-  <dimension ref="B2:N50"/>
+  <dimension ref="A2:Q89"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G53" sqref="G53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -7766,26 +12862,26 @@
     <col min="13" max="13" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:14">
       <c r="E2" s="44"/>
       <c r="F2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>110</v>
       </c>
       <c r="F3" s="45" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:14">
       <c r="C7" t="s">
         <v>89</v>
       </c>
@@ -7793,7 +12889,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>97</v>
       </c>
@@ -7834,7 +12930,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:14">
       <c r="C9" s="12" t="s">
         <v>64</v>
       </c>
@@ -7875,7 +12971,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:14">
       <c r="B10" t="s">
         <v>98</v>
       </c>
@@ -7919,7 +13015,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:14">
       <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
@@ -7960,7 +13056,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:14">
       <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
@@ -8001,7 +13097,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:14">
       <c r="B13" t="s">
         <v>98</v>
       </c>
@@ -8045,7 +13141,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:14">
       <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
@@ -8086,22 +13182,22 @@
         <v>NG</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:8">
       <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:8">
       <c r="C20" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:8">
       <c r="C22" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:8">
       <c r="C23" t="s">
         <v>76</v>
       </c>
@@ -8121,7 +13217,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:8">
       <c r="C24" s="12" t="s">
         <v>64</v>
       </c>
@@ -8143,7 +13239,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:8">
       <c r="C25" s="12" t="s">
         <v>44</v>
       </c>
@@ -8165,7 +13261,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:8">
       <c r="C26" s="12" t="s">
         <v>44</v>
       </c>
@@ -8187,7 +13283,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:8">
       <c r="C27" s="12" t="s">
         <v>44</v>
       </c>
@@ -8209,7 +13305,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:8">
       <c r="C28" s="12" t="s">
         <v>44</v>
       </c>
@@ -8231,7 +13327,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:8">
       <c r="C29" s="12" t="s">
         <v>44</v>
       </c>
@@ -8253,12 +13349,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:8">
       <c r="C32" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:10" ht="19.5" thickBot="1">
       <c r="C33" s="29" t="s">
         <v>91</v>
       </c>
@@ -8280,7 +13376,7 @@
       <c r="I33" s="24"/>
       <c r="J33" s="24"/>
     </row>
-    <row r="34" spans="3:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:10" ht="19.5" thickTop="1">
       <c r="C34" s="28" t="s">
         <v>86</v>
       </c>
@@ -8300,7 +13396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:10">
       <c r="C35" s="27" t="s">
         <v>87</v>
       </c>
@@ -8320,7 +13416,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:10">
       <c r="C36" s="27" t="s">
         <v>88</v>
       </c>
@@ -8340,7 +13436,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:10">
       <c r="C37" s="27" t="s">
         <v>72</v>
       </c>
@@ -8360,7 +13456,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:10">
       <c r="C38" s="27" t="s">
         <v>92</v>
       </c>
@@ -8380,7 +13476,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:10">
       <c r="C39" s="27" t="s">
         <v>93</v>
       </c>
@@ -8400,7 +13496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:10">
       <c r="C40" s="27" t="s">
         <v>94</v>
       </c>
@@ -8420,7 +13516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:10">
       <c r="C41" s="27" t="s">
         <v>95</v>
       </c>
@@ -8440,16 +13536,16 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="3:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C45" s="46" t="s">
+    <row r="45" spans="3:10" ht="19.5" thickBot="1">
+      <c r="C45" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-      <c r="G45" s="48"/>
-    </row>
-    <row r="46" spans="3:10" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="54"/>
+    </row>
+    <row r="46" spans="3:10" ht="19.5" thickTop="1">
       <c r="C46" s="28" t="s">
         <v>104</v>
       </c>
@@ -8466,7 +13562,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:10">
       <c r="C47" s="27" t="s">
         <v>50</v>
       </c>
@@ -8484,7 +13580,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:10">
       <c r="C48" s="27" t="s">
         <v>51</v>
       </c>
@@ -8502,7 +13598,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:17">
       <c r="C49" s="27" t="s">
         <v>52</v>
       </c>
@@ -8520,7 +13616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:17">
       <c r="C50" s="27" t="s">
         <v>53</v>
       </c>
@@ -8538,9 +13634,724 @@
         <v>67</v>
       </c>
     </row>
+    <row r="52" spans="1:17">
+      <c r="A52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17">
+      <c r="B54" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17">
+      <c r="I55" s="5"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="C56" t="s">
+        <v>76</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E56" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F56" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I56" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="J56" t="s">
+        <v>158</v>
+      </c>
+      <c r="K56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L56" t="s">
+        <v>47</v>
+      </c>
+      <c r="M56" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="N56" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="O56" s="51" t="s">
+        <v>108</v>
+      </c>
+      <c r="P56" s="51" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q56" s="51" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="C57" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>78</v>
+      </c>
+      <c r="E57" t="s">
+        <v>82</v>
+      </c>
+      <c r="F57" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G57" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H57" t="s">
+        <v>123</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J57" s="21">
+        <v>100</v>
+      </c>
+      <c r="K57" s="19">
+        <v>80</v>
+      </c>
+      <c r="L57" s="19">
+        <f t="shared" ref="L57:L62" si="5">IF(J57&lt;K57,0,J57-K57)</f>
+        <v>20</v>
+      </c>
+      <c r="M57" s="23">
+        <f t="shared" ref="M57:M62" si="6">K57+L57</f>
+        <v>100</v>
+      </c>
+      <c r="N57" s="23">
+        <v>100</v>
+      </c>
+      <c r="O57" s="23">
+        <v>10</v>
+      </c>
+      <c r="P57" s="23">
+        <v>480</v>
+      </c>
+      <c r="Q57" s="51" t="str">
+        <f>IF(M57&lt;=P57,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="B58" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" t="s">
+        <v>78</v>
+      </c>
+      <c r="E58" t="s">
+        <v>83</v>
+      </c>
+      <c r="F58" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G58" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H58" t="s">
+        <v>123</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J58" s="21">
+        <v>160</v>
+      </c>
+      <c r="K58" s="19">
+        <v>20</v>
+      </c>
+      <c r="L58" s="19">
+        <f t="shared" si="5"/>
+        <v>140</v>
+      </c>
+      <c r="M58" s="23">
+        <f t="shared" si="6"/>
+        <v>160</v>
+      </c>
+      <c r="N58" s="23">
+        <v>100</v>
+      </c>
+      <c r="O58" s="23">
+        <v>5</v>
+      </c>
+      <c r="P58" s="23">
+        <v>320</v>
+      </c>
+      <c r="Q58" s="51" t="str">
+        <f t="shared" ref="Q58:Q61" si="7">IF(M58&lt;=P58,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="C59" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" t="s">
+        <v>84</v>
+      </c>
+      <c r="F59" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G59" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H59" t="s">
+        <v>125</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J59" s="21">
+        <v>80</v>
+      </c>
+      <c r="K59" s="19">
+        <v>40</v>
+      </c>
+      <c r="L59" s="19">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="M59" s="23">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="N59" s="23">
+        <v>100</v>
+      </c>
+      <c r="O59" s="23">
+        <v>2</v>
+      </c>
+      <c r="P59" s="23">
+        <v>160</v>
+      </c>
+      <c r="Q59" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17">
+      <c r="C60" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D60" t="s">
+        <v>79</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G60" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H60" t="s">
+        <v>123</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="J60" s="21">
+        <v>120</v>
+      </c>
+      <c r="K60" s="17">
+        <v>110</v>
+      </c>
+      <c r="L60" s="17">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="M60" s="23">
+        <f t="shared" si="6"/>
+        <v>120</v>
+      </c>
+      <c r="N60" s="23">
+        <v>120</v>
+      </c>
+      <c r="O60" s="23">
+        <v>4</v>
+      </c>
+      <c r="P60" s="23">
+        <v>220</v>
+      </c>
+      <c r="Q60" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17">
+      <c r="B61" t="s">
+        <v>98</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D61" t="s">
+        <v>80</v>
+      </c>
+      <c r="E61" t="s">
+        <v>85</v>
+      </c>
+      <c r="F61" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G61" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H61" t="s">
+        <v>127</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J61" s="21">
+        <v>40</v>
+      </c>
+      <c r="K61" s="18">
+        <v>60</v>
+      </c>
+      <c r="L61" s="18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="23">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="N61" s="23">
+        <v>160</v>
+      </c>
+      <c r="O61" s="23">
+        <v>3</v>
+      </c>
+      <c r="P61" s="23">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="51" t="str">
+        <f t="shared" si="7"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17">
+      <c r="C62" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62" t="s">
+        <v>80</v>
+      </c>
+      <c r="E62" t="s">
+        <v>85</v>
+      </c>
+      <c r="F62" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G62" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H62" t="s">
+        <v>129</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="J62" s="21">
+        <v>320</v>
+      </c>
+      <c r="K62" s="19">
+        <v>100</v>
+      </c>
+      <c r="L62" s="19">
+        <f t="shared" si="5"/>
+        <v>220</v>
+      </c>
+      <c r="M62" s="23">
+        <f t="shared" si="6"/>
+        <v>320</v>
+      </c>
+      <c r="N62" s="23">
+        <v>90</v>
+      </c>
+      <c r="O62" s="23">
+        <v>2</v>
+      </c>
+      <c r="P62" s="23">
+        <v>160</v>
+      </c>
+      <c r="Q62" s="51" t="str">
+        <f>IF(M62&lt;=P62,"OK","NG")</f>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9">
+      <c r="C65" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9">
+      <c r="C66" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9">
+      <c r="C67" s="22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9">
+      <c r="B69" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9">
+      <c r="C70" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="F70" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9">
+      <c r="C71" s="43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9">
+      <c r="C72" s="22" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9">
+      <c r="C73" s="22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9">
+      <c r="C75" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9">
+      <c r="C76" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="I76" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" ht="19.5" thickBot="1">
+      <c r="C77" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D77" s="53"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="53"/>
+      <c r="G77" s="54"/>
+      <c r="I77" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" ht="19.5" thickTop="1">
+      <c r="C78" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D78" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G78" s="27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9">
+      <c r="C79" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D79" s="27">
+        <v>40</v>
+      </c>
+      <c r="E79" s="27">
+        <v>20</v>
+      </c>
+      <c r="F79" s="27">
+        <v>-15</v>
+      </c>
+      <c r="G79" s="31" t="str">
+        <f>IF(E79+F79&gt;D79,"NG","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="I79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9">
+      <c r="C80" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D80" s="27">
+        <v>20</v>
+      </c>
+      <c r="E80" s="27">
+        <v>30</v>
+      </c>
+      <c r="F80" s="27">
+        <v>0</v>
+      </c>
+      <c r="G80" s="32" t="str">
+        <f t="shared" ref="G80:G82" si="8">IF(E80+F80&gt;D80,"NG","OK")</f>
+        <v>NG</v>
+      </c>
+      <c r="I80" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13">
+      <c r="C81" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D81" s="27">
+        <v>10</v>
+      </c>
+      <c r="E81" s="27">
+        <v>5</v>
+      </c>
+      <c r="F81" s="27">
+        <v>20</v>
+      </c>
+      <c r="G81" s="32" t="str">
+        <f t="shared" si="8"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13">
+      <c r="C82" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D82" s="27">
+        <v>30</v>
+      </c>
+      <c r="E82" s="27">
+        <v>20</v>
+      </c>
+      <c r="F82" s="27">
+        <v>-10</v>
+      </c>
+      <c r="G82" s="31" t="str">
+        <f t="shared" si="8"/>
+        <v>OK</v>
+      </c>
+      <c r="I82" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13">
+      <c r="I83" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13">
+      <c r="C84" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13">
+      <c r="C85" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E85" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G85" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H85" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I85" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="J85" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="K85" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="L85" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="M85" s="36"/>
+    </row>
+    <row r="86" spans="3:13">
+      <c r="C86" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D86" s="27">
+        <v>40</v>
+      </c>
+      <c r="E86" s="27">
+        <v>20</v>
+      </c>
+      <c r="F86" s="27">
+        <v>-15</v>
+      </c>
+      <c r="G86" s="27">
+        <v>40</v>
+      </c>
+      <c r="H86" s="27">
+        <v>20</v>
+      </c>
+      <c r="I86" s="27">
+        <v>-15</v>
+      </c>
+      <c r="J86" s="27">
+        <v>40</v>
+      </c>
+      <c r="K86" s="27">
+        <v>20</v>
+      </c>
+      <c r="L86" s="27">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13">
+      <c r="C87" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D87" s="27">
+        <v>20</v>
+      </c>
+      <c r="E87" s="27">
+        <v>30</v>
+      </c>
+      <c r="F87" s="27">
+        <v>0</v>
+      </c>
+      <c r="G87" s="27">
+        <v>20</v>
+      </c>
+      <c r="H87" s="27">
+        <v>30</v>
+      </c>
+      <c r="I87" s="27">
+        <v>0</v>
+      </c>
+      <c r="J87" s="27">
+        <v>20</v>
+      </c>
+      <c r="K87" s="27">
+        <v>30</v>
+      </c>
+      <c r="L87" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13">
+      <c r="C88" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D88" s="27">
+        <v>10</v>
+      </c>
+      <c r="E88" s="27">
+        <v>5</v>
+      </c>
+      <c r="F88" s="27">
+        <v>20</v>
+      </c>
+      <c r="G88" s="27">
+        <v>10</v>
+      </c>
+      <c r="H88" s="27">
+        <v>5</v>
+      </c>
+      <c r="I88" s="27">
+        <v>20</v>
+      </c>
+      <c r="J88" s="27">
+        <v>10</v>
+      </c>
+      <c r="K88" s="27">
+        <v>5</v>
+      </c>
+      <c r="L88" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13">
+      <c r="C89" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="27">
+        <v>30</v>
+      </c>
+      <c r="E89" s="27">
+        <v>20</v>
+      </c>
+      <c r="F89" s="27">
+        <v>-10</v>
+      </c>
+      <c r="G89" s="27">
+        <v>30</v>
+      </c>
+      <c r="H89" s="27">
+        <v>20</v>
+      </c>
+      <c r="I89" s="27">
+        <v>-10</v>
+      </c>
+      <c r="J89" s="27">
+        <v>30</v>
+      </c>
+      <c r="K89" s="27">
+        <v>20</v>
+      </c>
+      <c r="L89" s="27">
+        <v>-10</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C77:G77"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8550,11 +14361,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADE583A-8968-4432-850E-84042B45CDDE}">
-  <dimension ref="B3:M62"/>
+  <dimension ref="B3:M66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="22.25" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
@@ -8567,17 +14378,17 @@
     <col min="13" max="13" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:13">
       <c r="B3" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:13">
       <c r="C5" s="25" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:13">
       <c r="C7" t="s">
         <v>89</v>
       </c>
@@ -8585,7 +14396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:13">
       <c r="C8" t="s">
         <v>76</v>
       </c>
@@ -8620,7 +14431,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:13">
       <c r="C9" s="12" t="s">
         <v>64</v>
       </c>
@@ -8658,7 +14469,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:13">
       <c r="C10" s="12" t="s">
         <v>44</v>
       </c>
@@ -8696,7 +14507,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:13">
       <c r="C11" s="12" t="s">
         <v>44</v>
       </c>
@@ -8734,7 +14545,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:13">
       <c r="C12" s="12" t="s">
         <v>44</v>
       </c>
@@ -8772,7 +14583,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:13">
       <c r="C13" s="12" t="s">
         <v>44</v>
       </c>
@@ -8810,7 +14621,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:13">
       <c r="C14" s="12" t="s">
         <v>44</v>
       </c>
@@ -8848,29 +14659,29 @@
         <v>NG</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:13">
       <c r="C16" s="33"/>
       <c r="E16" s="35"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:12">
       <c r="C17" s="43" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C18" s="43" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:12">
+      <c r="C18" s="47" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12">
       <c r="C19" s="43"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:12">
       <c r="C20" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12">
       <c r="C21" s="27" t="s">
         <v>104</v>
       </c>
@@ -8890,7 +14701,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:12">
       <c r="C22" s="27" t="s">
         <v>50</v>
       </c>
@@ -8901,14 +14712,14 @@
         <v>20</v>
       </c>
       <c r="F22" s="27">
-        <f>E22-D22</f>
-        <v>-20</v>
-      </c>
-      <c r="G22" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+        <v>15</v>
+      </c>
+      <c r="G22" s="31" t="str">
+        <f>IF(E22+F22&gt;D22,"NG","OK")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12">
       <c r="C23" s="27" t="s">
         <v>51</v>
       </c>
@@ -8919,14 +14730,14 @@
         <v>30</v>
       </c>
       <c r="F23" s="27">
-        <f>E23-D23</f>
         <v>10</v>
       </c>
-      <c r="G23" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="G23" s="32" t="str">
+        <f t="shared" ref="G23:G25" si="3">IF(E23+F23&gt;D23,"NG","OK")</f>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12">
       <c r="C24" s="27" t="s">
         <v>52</v>
       </c>
@@ -8934,17 +14745,17 @@
         <v>10</v>
       </c>
       <c r="E24" s="27">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F24" s="27">
-        <f>E24-D24</f>
-        <v>5</v>
-      </c>
-      <c r="G24" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+        <v>20</v>
+      </c>
+      <c r="G24" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12">
       <c r="C25" s="27" t="s">
         <v>53</v>
       </c>
@@ -8955,19 +14766,20 @@
         <v>20</v>
       </c>
       <c r="F25" s="27">
-        <f>E25-D25</f>
-        <v>-10</v>
-      </c>
-      <c r="G25" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.4">
+        <f t="shared" ref="F25" si="4">D25-E25</f>
+        <v>10</v>
+      </c>
+      <c r="G25" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12">
       <c r="C28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" ht="19.5" thickBot="1">
       <c r="C29" s="29" t="s">
         <v>112</v>
       </c>
@@ -8995,8 +14807,8 @@
       <c r="K29" s="24"/>
       <c r="L29" s="24"/>
     </row>
-    <row r="30" spans="3:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C30" s="28" t="s">
+    <row r="30" spans="3:12" ht="19.5" hidden="1" thickTop="1">
+      <c r="C30" s="48" t="s">
         <v>86</v>
       </c>
       <c r="D30" s="28">
@@ -9024,7 +14836,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:12" ht="19.5" thickTop="1">
       <c r="C31" s="27" t="s">
         <v>87</v>
       </c>
@@ -9050,7 +14862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:12" hidden="1">
       <c r="C32" s="27" t="s">
         <v>88</v>
       </c>
@@ -9076,7 +14888,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:10" hidden="1">
       <c r="C33" s="27" t="s">
         <v>72</v>
       </c>
@@ -9102,8 +14914,8 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C34" s="27" t="s">
+    <row r="34" spans="2:10">
+      <c r="C34" s="49" t="s">
         <v>92</v>
       </c>
       <c r="D34" s="27">
@@ -9128,7 +14940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10">
       <c r="C35" s="27" t="s">
         <v>93</v>
       </c>
@@ -9154,7 +14966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10">
       <c r="C36" s="27" t="s">
         <v>94</v>
       </c>
@@ -9166,27 +14978,26 @@
         <v>103</v>
       </c>
       <c r="F36" s="27">
-        <f t="shared" ref="F36:J36" si="3">E36-7</f>
+        <f t="shared" ref="F36:J36" si="5">E36-7</f>
         <v>96</v>
       </c>
       <c r="G36" s="39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="H36" s="42">
-        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="I36" s="27">
+        <f t="shared" si="5"/>
         <v>82</v>
       </c>
-      <c r="I36" s="27">
-        <f t="shared" si="3"/>
+      <c r="J36" s="27">
+        <f t="shared" si="5"/>
         <v>75</v>
       </c>
-      <c r="J36" s="27">
-        <f t="shared" si="3"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
+    </row>
+    <row r="37" spans="2:10">
       <c r="C37" s="27" t="s">
         <v>95</v>
       </c>
@@ -9212,261 +15023,181 @@
         <v>66</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:10">
       <c r="C38" s="36" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B41" t="s">
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C42" t="s">
+    <row r="46" spans="2:10">
+      <c r="C46" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C43" s="12" t="s">
+    <row r="47" spans="2:10">
+      <c r="C47" s="12" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="D44" t="s">
+    <row r="48" spans="2:10">
+      <c r="D48" t="s">
         <v>45</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E48" t="s">
         <v>46</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F48" t="s">
         <v>47</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G48" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C45" t="s">
+    <row r="49" spans="3:12">
+      <c r="C49" t="s">
         <v>4</v>
       </c>
-      <c r="D45" s="21">
+      <c r="D49" s="21">
         <v>100</v>
       </c>
-      <c r="E45" s="19">
+      <c r="E49" s="19">
         <v>80</v>
       </c>
-      <c r="F45" s="19">
-        <f t="shared" ref="F45:F47" si="4">IF(D45&lt;E45,0,D45-E45)</f>
+      <c r="F49" s="19">
+        <f>IF(D49&lt;E49,0,D49-E49)</f>
         <v>20</v>
       </c>
-      <c r="G45">
+      <c r="G49">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C46" t="s">
+    <row r="50" spans="3:12">
+      <c r="C50" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="21">
+      <c r="D50" s="21">
         <v>160</v>
       </c>
-      <c r="E46" s="19">
+      <c r="E50" s="19">
         <v>20</v>
       </c>
-      <c r="F46" s="19">
-        <f t="shared" si="4"/>
+      <c r="F50" s="19">
+        <f t="shared" ref="F50:F51" si="6">IF(D50&lt;E50,0,D50-E50)</f>
         <v>140</v>
       </c>
-      <c r="G46">
+      <c r="G50">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C47" t="s">
+    <row r="51" spans="3:12">
+      <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="21">
+      <c r="D51" s="21">
         <v>80</v>
       </c>
-      <c r="E47" s="19">
+      <c r="E51" s="19">
         <v>40</v>
       </c>
-      <c r="F47" s="19">
-        <f t="shared" si="4"/>
+      <c r="F51" s="19">
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="G47">
+      <c r="G51">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="C48" s="33" t="s">
+    <row r="52" spans="3:12">
+      <c r="C52" s="33" t="s">
         <v>115</v>
-      </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C52" s="25" t="s">
-        <v>69</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C53" t="s">
+    <row r="53" spans="3:12">
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+    </row>
+    <row r="54" spans="3:12">
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="3:12">
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+    </row>
+    <row r="56" spans="3:12">
+      <c r="C56" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+    </row>
+    <row r="57" spans="3:12">
+      <c r="C57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="54" spans="3:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C54" s="29"/>
-      <c r="D54" s="30" t="s">
+    <row r="58" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C58" s="29"/>
+      <c r="D58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="E54" s="30" t="s">
+      <c r="E58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="F54" s="30" t="s">
+      <c r="F58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="G54" s="30" t="s">
+      <c r="G58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="H54" s="30" t="s">
+      <c r="H58" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="I54" s="24"/>
-      <c r="J54" s="24"/>
-      <c r="K54" s="24"/>
-      <c r="L54" s="24"/>
-    </row>
-    <row r="55" spans="3:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="C55" s="28" t="s">
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="24"/>
+    </row>
+    <row r="59" spans="3:12" ht="19.5" thickTop="1">
+      <c r="C59" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="D55" s="28">
+      <c r="D59" s="28">
         <v>8</v>
       </c>
-      <c r="E55" s="28">
+      <c r="E59" s="28">
         <v>8</v>
       </c>
-      <c r="F55" s="28">
+      <c r="F59" s="28">
         <v>8</v>
       </c>
-      <c r="G55" s="28">
+      <c r="G59" s="28">
         <v>8</v>
       </c>
-      <c r="H55" s="28">
+      <c r="H59" s="28">
         <v>8</v>
       </c>
-      <c r="I55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C56" s="27" t="s">
+      <c r="I59" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12">
+      <c r="C60" s="27" t="s">
         <v>87</v>
-      </c>
-      <c r="D56" s="27">
-        <v>10</v>
-      </c>
-      <c r="E56" s="27">
-        <v>7</v>
-      </c>
-      <c r="F56" s="27">
-        <v>4</v>
-      </c>
-      <c r="G56" s="27">
-        <v>12</v>
-      </c>
-      <c r="H56" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C57" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D57" s="27">
-        <v>10</v>
-      </c>
-      <c r="E57" s="27">
-        <v>7</v>
-      </c>
-      <c r="F57" s="27">
-        <v>4</v>
-      </c>
-      <c r="G57" s="27">
-        <v>12</v>
-      </c>
-      <c r="H57" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C58" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G58" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C59" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D59" s="27">
-        <v>8</v>
-      </c>
-      <c r="E59" s="27">
-        <v>8</v>
-      </c>
-      <c r="F59" s="27">
-        <v>8</v>
-      </c>
-      <c r="G59" s="27">
-        <v>8</v>
-      </c>
-      <c r="H59" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C60" s="27" t="s">
-        <v>93</v>
       </c>
       <c r="D60" s="27">
         <v>10</v>
@@ -9484,9 +15215,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:12">
       <c r="C61" s="27" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D61" s="27">
         <v>10</v>
@@ -9504,9 +15235,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:12">
       <c r="C62" s="27" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>66</v>
@@ -9522,6 +15253,774 @@
       </c>
       <c r="H62" s="31" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12">
+      <c r="C63" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D63" s="27">
+        <v>8</v>
+      </c>
+      <c r="E63" s="27">
+        <v>8</v>
+      </c>
+      <c r="F63" s="27">
+        <v>8</v>
+      </c>
+      <c r="G63" s="27">
+        <v>8</v>
+      </c>
+      <c r="H63" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12">
+      <c r="C64" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D64" s="27">
+        <v>10</v>
+      </c>
+      <c r="E64" s="27">
+        <v>7</v>
+      </c>
+      <c r="F64" s="27">
+        <v>4</v>
+      </c>
+      <c r="G64" s="27">
+        <v>12</v>
+      </c>
+      <c r="H64" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8">
+      <c r="C65" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D65" s="27">
+        <v>10</v>
+      </c>
+      <c r="E65" s="27">
+        <v>7</v>
+      </c>
+      <c r="F65" s="27">
+        <v>4</v>
+      </c>
+      <c r="G65" s="27">
+        <v>12</v>
+      </c>
+      <c r="H65" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8">
+      <c r="C66" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="D66" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F66" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G66" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H66" s="31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C56C2B-14A9-4DA6-ADA7-F89FC8A213EA}">
+  <dimension ref="B2:U52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="3" max="3" width="22.25" customWidth="1"/>
+    <col min="4" max="4" width="17.125" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="12.625" customWidth="1"/>
+    <col min="7" max="7" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="10.875" customWidth="1"/>
+    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" customWidth="1"/>
+    <col min="13" max="13" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="E2" s="44"/>
+      <c r="F2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="F3" s="45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="C10" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13" s="44" t="s">
+        <v>122</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" t="s">
+        <v>46</v>
+      </c>
+      <c r="L13" t="s">
+        <v>47</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>106</v>
+      </c>
+      <c r="O13" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="P13" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="C14" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>82</v>
+      </c>
+      <c r="F14" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G14" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H14" t="s">
+        <v>123</v>
+      </c>
+      <c r="I14" t="s">
+        <v>124</v>
+      </c>
+      <c r="J14" s="21">
+        <v>100</v>
+      </c>
+      <c r="K14" s="19">
+        <v>80</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" ref="L14:L19" si="0">IF(J14&lt;K14,0,J14-K14)</f>
+        <v>20</v>
+      </c>
+      <c r="M14" s="19">
+        <f t="shared" ref="M14:M19" si="1">K14+L14</f>
+        <v>100</v>
+      </c>
+      <c r="N14" s="19">
+        <v>100</v>
+      </c>
+      <c r="O14" s="19">
+        <v>10</v>
+      </c>
+      <c r="P14" s="19">
+        <v>480</v>
+      </c>
+      <c r="Q14" s="8" t="str">
+        <f>IF(M14&lt;=P14,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" t="s">
+        <v>98</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G15" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H15" t="s">
+        <v>123</v>
+      </c>
+      <c r="I15" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="21">
+        <v>160</v>
+      </c>
+      <c r="K15" s="19">
+        <v>20</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="M15" s="19">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="N15" s="19">
+        <v>100</v>
+      </c>
+      <c r="O15" s="19">
+        <v>5</v>
+      </c>
+      <c r="P15" s="19">
+        <v>320</v>
+      </c>
+      <c r="Q15" s="8" t="str">
+        <f t="shared" ref="Q15:Q18" si="2">IF(M15&lt;=P15,"OK","NG")</f>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="C16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G16" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H16" t="s">
+        <v>125</v>
+      </c>
+      <c r="I16" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="21">
+        <v>80</v>
+      </c>
+      <c r="K16" s="19">
+        <v>40</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="M16" s="19">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="N16" s="19">
+        <v>100</v>
+      </c>
+      <c r="O16" s="19">
+        <v>2</v>
+      </c>
+      <c r="P16" s="19">
+        <v>160</v>
+      </c>
+      <c r="Q16" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="C17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G17" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H17" t="s">
+        <v>123</v>
+      </c>
+      <c r="I17" t="s">
+        <v>124</v>
+      </c>
+      <c r="J17" s="21">
+        <v>120</v>
+      </c>
+      <c r="K17" s="17">
+        <v>110</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="N17" s="17">
+        <v>120</v>
+      </c>
+      <c r="O17" s="17">
+        <v>4</v>
+      </c>
+      <c r="P17" s="19">
+        <v>220</v>
+      </c>
+      <c r="Q17" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G18" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>128</v>
+      </c>
+      <c r="J18" s="21">
+        <v>40</v>
+      </c>
+      <c r="K18" s="18">
+        <v>60</v>
+      </c>
+      <c r="L18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="18">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="N18" s="18">
+        <v>160</v>
+      </c>
+      <c r="O18" s="18">
+        <v>3</v>
+      </c>
+      <c r="P18" s="19">
+        <v>80</v>
+      </c>
+      <c r="Q18" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>OK</v>
+      </c>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="C19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="24">
+        <v>45188</v>
+      </c>
+      <c r="G19" s="24">
+        <v>45189</v>
+      </c>
+      <c r="H19" t="s">
+        <v>129</v>
+      </c>
+      <c r="I19" t="s">
+        <v>123</v>
+      </c>
+      <c r="J19" s="21">
+        <v>320</v>
+      </c>
+      <c r="K19" s="19">
+        <v>100</v>
+      </c>
+      <c r="L19" s="19">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="M19" s="19">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="N19" s="19">
+        <v>90</v>
+      </c>
+      <c r="O19" s="19">
+        <v>2</v>
+      </c>
+      <c r="P19" s="18">
+        <v>160</v>
+      </c>
+      <c r="Q19" s="13" t="str">
+        <f>IF(M19&lt;=P19,"OK","NG")</f>
+        <v>NG</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="G21" s="35"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="C22" s="12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="C23" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="O23" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="C24" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G24" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="O24" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q24" s="50" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="C25" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="27">
+        <v>40</v>
+      </c>
+      <c r="E25" s="27">
+        <v>20</v>
+      </c>
+      <c r="F25" s="27">
+        <v>15</v>
+      </c>
+      <c r="G25" s="31" t="str">
+        <f>IF(E25+F25&gt;D25,"NG","OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="O25" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q25" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="U25" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="C26" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" s="27">
+        <v>20</v>
+      </c>
+      <c r="E26" s="27">
+        <v>30</v>
+      </c>
+      <c r="F26" s="27">
+        <v>10</v>
+      </c>
+      <c r="G26" s="32" t="str">
+        <f t="shared" ref="G26:G28" si="3">IF(E26+F26&gt;D26,"NG","OK")</f>
+        <v>NG</v>
+      </c>
+      <c r="U26" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="C27" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D27" s="27">
+        <v>10</v>
+      </c>
+      <c r="E27" s="27">
+        <v>5</v>
+      </c>
+      <c r="F27" s="27">
+        <v>20</v>
+      </c>
+      <c r="G27" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>NG</v>
+      </c>
+      <c r="O27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="C28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="27">
+        <v>30</v>
+      </c>
+      <c r="E28" s="27">
+        <v>20</v>
+      </c>
+      <c r="F28" s="27">
+        <f t="shared" ref="F28" si="4">D28-E28</f>
+        <v>10</v>
+      </c>
+      <c r="G28" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>OK</v>
+      </c>
+      <c r="O28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="O29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="36" spans="3:16">
+      <c r="C36" t="s">
+        <v>134</v>
+      </c>
+      <c r="O36" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="37" spans="3:16">
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="O37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="3:16">
+      <c r="O39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="42" spans="3:16">
+      <c r="O42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="43" spans="3:16">
+      <c r="O43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="3:16">
+      <c r="O44" t="s">
+        <v>141</v>
+      </c>
+      <c r="P44" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="3:16">
+      <c r="O45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="3:16">
+      <c r="O48" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="15:16">
+      <c r="O50" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="15:16">
+      <c r="O51" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="52" spans="15:16">
+      <c r="P52" t="s">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19204B2-CEB3-4B45-96C5-C86788F564D1}">
+  <dimension ref="G3:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
+  <cols>
+    <col min="7" max="7" width="16.5" customWidth="1"/>
+    <col min="8" max="8" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="7:10">
+      <c r="G3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="7:10">
+      <c r="G5" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45215</v>
+      </c>
+      <c r="I5" s="2">
+        <v>45217</v>
+      </c>
+      <c r="J5" s="2">
+        <v>45219</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10">
+      <c r="G6" t="s">
+        <v>152</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="7:10">
+      <c r="G7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Plotly/INPUT/Plotly生成グラフイメージ.xlsx
+++ b/Plotly/INPUT/Plotly生成グラフイメージ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\asds\電子センター(技術部)\TJ000\06他社授受_D\A_008_NSCS\02_共有情報\0298_個人フォルダ\zb109_nakamura\目標管理\2023\SMR工数モニター\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913FBDB-4353-440C-937F-3B8C1F093BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FB420B1-A1F2-448D-8744-0DC51E06E882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" firstSheet="1" activeTab="5" xr2:uid="{549CD01E-4A24-4E7A-B7AC-A17503469783}"/>
+    <workbookView xWindow="20370" yWindow="-4785" windowWidth="29040" windowHeight="15990" firstSheet="1" activeTab="5" xr2:uid="{549CD01E-4A24-4E7A-B7AC-A17503469783}"/>
   </bookViews>
   <sheets>
     <sheet name="Plotly生成グラフイメージ" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="188">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="1"/>
@@ -803,38 +803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2023/9/13～2023/9/19</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※およそ7～8h作業できているか、残工数の減り方で進捗具合を確認</t>
-    <rPh sb="8" eb="10">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>カタ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>シンチョク</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>グアイ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>メインページのSMRを押すと以下表示</t>
     <rPh sb="11" eb="12">
       <t>オ</t>
@@ -862,25 +830,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↓ 全日か1日毎かを選択</t>
-    <rPh sb="2" eb="3">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>※アサイン状況を把握。毎日確認するものではない</t>
     <rPh sb="5" eb="7">
       <t>ジョウキョウ</t>
@@ -997,38 +946,6 @@
     <t>宮田</t>
     <rPh sb="0" eb="2">
       <t>ミヤタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>全日を選択した場合</t>
-    <rPh sb="0" eb="1">
-      <t>ゼン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1日毎を選択した場合</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ゴト</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1053,17 +970,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>weeklyを選択したら</t>
-    <rPh sb="7" eb="9">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dropdown(This, Last, Next Week)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>初回表示は全SMRまとめてのグラフ</t>
     <rPh sb="0" eb="2">
       <t>ショカイ</t>
@@ -1176,42 +1082,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>セイリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>数字・グラフ両方表示する前提で考える</t>
-    <rPh sb="0" eb="2">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>リョウホウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゼンテイ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カンガ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グラフにする情報は？</t>
-    <rPh sb="6" eb="8">
-      <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>→着地予測系を折れ線で</t>
-    <rPh sb="7" eb="8">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>セン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1944,102 +1814,237 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>②残工数・(見積を日付で割る)</t>
-    <rPh sb="1" eb="2">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒヅケ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ワ</t>
+    <t>※ちゃんと稼働できているかの確認のため</t>
+    <rPh sb="5" eb="7">
+      <t>カドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①見積もり・実績・着地</t>
-    <rPh sb="1" eb="3">
-      <t>ミツ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チャクチ</t>
+    <t>日付指定</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実現するために必要な情報①②共通</t>
+    <t>日付指定を選択したら以下</t>
     <rPh sb="0" eb="2">
-      <t>ジツゲン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒツヨウ</t>
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センタク</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キョウツウ</t>
+      <t>イカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・WBSの実績・見積・残工数</t>
-    <rPh sb="5" eb="7">
-      <t>ジッセキ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
+    <t>　①残工数・(見積を日付で割る)</t>
+    <rPh sb="2" eb="3">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
       <t>ミツ</t>
     </rPh>
-    <rPh sb="11" eb="12">
-      <t>ザン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>コウスウ</t>
+    <rPh sb="10" eb="12">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・SMR開始日・終了日 → WBSからは拾ってこれない</t>
-    <rPh sb="4" eb="6">
-      <t>カイシ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ヒロ</t>
+    <t>　②見積もり・実績・着地</t>
+    <rPh sb="2" eb="4">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チャクチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>↓</t>
+    <t>必要な情報</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>次回までに案を考える</t>
+    <t>・残工数</t>
+    <rPh sb="1" eb="2">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・見積工数</t>
+    <rPh sb="1" eb="3">
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SMR開始日</t>
+    <rPh sb="4" eb="6">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・SMR終了日</t>
+    <rPh sb="4" eb="7">
+      <t>シュウリョウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WBS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMR一覧？</t>
+    <rPh sb="3" eb="5">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・実績</t>
+    <rPh sb="1" eb="3">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見積工数</t>
     <rPh sb="0" eb="2">
-      <t>ジカイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>アン</t>
+      <t>ミツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残工数</t>
+    <rPh sb="0" eb="1">
+      <t>ザン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>コウスウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMR1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SMR2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>工数推移の表示に使える？</t>
+    <rPh sb="0" eb="2">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数のグラフを並べて表示</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
     </rPh>
     <rPh sb="7" eb="8">
-      <t>カンガ</t>
+      <t>ナラ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メンバーのSMR作業工数比率とか欲しいなら使えるかも</t>
+    <rPh sb="8" eb="10">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒリツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>各メンバーの稼働時間推移表示に使える？？</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>カドウジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スイイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2048,7 +2053,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2157,8 +2162,17 @@
       <family val="2"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2198,18 +2212,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2343,7 +2345,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2446,58 +2448,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3888,7 +3866,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>グラフ例!$G$6</c:f>
+              <c:f>グラフ例!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3911,7 +3889,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:f>グラフ例!$H$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3929,7 +3907,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>グラフ例!$H$6:$J$6</c:f>
+              <c:f>グラフ例!$H$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3957,7 +3935,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>グラフ例!$G$7</c:f>
+              <c:f>グラフ例!$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3980,7 +3958,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:f>グラフ例!$H$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3998,7 +3976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>グラフ例!$H$7:$J$7</c:f>
+              <c:f>グラフ例!$H$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4348,6 +4326,437 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見積工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ例!$G$42:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SMR1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SMR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$42:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-10A4-46D4-891E-78165771AF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$I$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ例!$G$42:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SMR1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SMR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$I$42:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-10A4-46D4-891E-78165771AF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$J$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ例!$G$42:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SMR1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SMR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$J$42:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-10A4-46D4-891E-78165771AF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1377411695"/>
+        <c:axId val="1377412111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377411695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377412111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377412111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377411695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -4356,7 +4765,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>グラフ例!$G$6</c:f>
+              <c:f>グラフ例!$G$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4379,7 +4788,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:f>グラフ例!$H$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4397,7 +4806,475 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>グラフ例!$H$6:$J$6</c:f>
+              <c:f>グラフ例!$H$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07FD-422B-900C-1B9E62493BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実際の残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ例!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07FD-422B-900C-1B9E62493BA7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1756736159"/>
+        <c:axId val="1756737407"/>
+      </c:lineChart>
+      <c:dateAx>
+        <c:axId val="1756736159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756737407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblOffset val="100"/>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
+      <c:valAx>
+        <c:axId val="1756737407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1756736159"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$G$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>順調な残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>グラフ例!$H$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45215</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45217</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45219</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4425,7 +5302,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>グラフ例!$G$7</c:f>
+              <c:f>グラフ例!$G$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4448,7 +5325,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>グラフ例!$H$5:$J$5</c:f>
+              <c:f>グラフ例!$H$12:$J$12</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4466,7 +5343,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>グラフ例!$H$7:$J$7</c:f>
+              <c:f>グラフ例!$H$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4769,6 +5646,437 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>見積工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ例!$G$42:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SMR1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SMR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$H$42:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-84EE-40CD-B5FD-0CA335684EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$I$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>実績</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="92D050"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ例!$G$42:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SMR1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SMR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$I$42:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-84EE-40CD-B5FD-0CA335684EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>グラフ例!$J$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>残工数</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>グラフ例!$G$42:$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>SMR1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SMR2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>グラフ例!$J$42:$J$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-84EE-40CD-B5FD-0CA335684EE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1377411695"/>
+        <c:axId val="1377412111"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1377411695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377412111"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1377412111"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1377411695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4969,6 +6277,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
@@ -7001,7 +8429,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7109,6 +8537,511 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
@@ -7484,6 +9417,1027 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9236,8 +12190,8 @@
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>389999</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>27821</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>46871</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9280,8 +12234,8 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>246995</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>180117</xdr:rowOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>199167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9325,7 +12279,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9405,217 +12359,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1133475</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>885825</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="吹き出し: 四角形 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7226A7A3-9E6B-44D1-A509-2BAB62B0CD6A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6591300" y="9001125"/>
-          <a:ext cx="3314700" cy="1114425"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -51458"/>
-            <a:gd name="adj2" fmla="val -67523"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>判定条件</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>案①</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>日</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>より少ない場合</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>NG</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>案②残工数の減り方と実績工数から判定</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　　残工数が</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>2h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>減りで、実績工数は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>7h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> → </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>NG</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>923925</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9631,7 +12384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7877175" y="5391150"/>
-          <a:ext cx="3314700" cy="866775"/>
+          <a:ext cx="3314700" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
@@ -9787,6 +12540,25 @@
             </a:rPr>
             <a:t>NG</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>判定は特に不要？</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -9807,23 +12579,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>501161</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>167053</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>219808</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>212481</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="吹き出し: 四角形 7">
+        <xdr:cNvPr id="11" name="吹き出し: 四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F56BB06-4673-DE12-DEA5-708669680F54}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9320738-4BA5-49FF-BF4F-0F741A1ABE94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9831,13 +12603,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1878623" y="9127880"/>
-          <a:ext cx="4972050" cy="1254370"/>
+          <a:off x="4648200" y="7734301"/>
+          <a:ext cx="2190750" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -34190"/>
-            <a:gd name="adj2" fmla="val -139842"/>
+            <a:gd name="adj1" fmla="val -69769"/>
+            <a:gd name="adj2" fmla="val -169273"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -9871,88 +12643,8 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>・予定工数は載せない</a:t>
+            <a:t>期間指定できるようにする？</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>8h</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>前後働くのが当たり前の為</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・判定欄</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>　行を使わずに、実績工数・残工数の増減がよろしくない時に色で表現する</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -9965,23 +12657,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>708227</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>225031</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1010479</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>223632</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="吹き出し: 四角形 8">
+        <xdr:cNvPr id="12" name="吹き出し: 四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF09DF8B-68DA-ACC7-52F6-8592F13C4424}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C506BE-CCA0-4789-AA9D-8827975707BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9989,13 +12681,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4998618" y="11530792"/>
-          <a:ext cx="6274013" cy="1439775"/>
+          <a:off x="4248150" y="3867150"/>
+          <a:ext cx="2381250" cy="323850"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -34850"/>
-            <a:gd name="adj2" fmla="val -178960"/>
+            <a:gd name="adj1" fmla="val -94221"/>
+            <a:gd name="adj2" fmla="val 81168"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -10024,20 +12716,12 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・</a:t>
-          </a:r>
-          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>WBS</a:t>
+            <a:t>Default</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
@@ -10045,104 +12729,8 @@
                 <a:srgbClr val="FF0000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>からは</a:t>
+            <a:t>では全日が出るようにする。</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>実績工数は大変だが何日分でも取得できる</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>残工数は当日分しか取得できないので、日ごとのデータを残すのは難しい</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>（データ量が膨大になる）</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>そうすると日ごとの</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SMR×</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>実績工数の表にしかならない。表示する価値ほとんどなし。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
               <a:srgbClr val="FF0000"/>
@@ -10421,13 +13009,13 @@
       <xdr:col>3</xdr:col>
       <xdr:colOff>42334</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>10582</xdr:rowOff>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>317500</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>224117</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10442,13 +13030,13 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3101540" y="6834964"/>
-          <a:ext cx="5463489" cy="1154829"/>
+          <a:off x="3114147" y="6916208"/>
+          <a:ext cx="5478197" cy="941918"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -66413"/>
-            <a:gd name="adj2" fmla="val -82471"/>
+            <a:gd name="adj1" fmla="val -69456"/>
+            <a:gd name="adj2" fmla="val -87527"/>
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
@@ -10554,17 +13142,6 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>・指定した日付に絞って表示できるようにする</a:t>
-          </a:r>
-        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
@@ -10573,13 +13150,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>291041</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>146236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>698499</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -10865,16 +13442,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1281112</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>442912</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>583405</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>59530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10905,13 +13482,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>311772</xdr:colOff>
-      <xdr:row>37</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>197722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>487828</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>55</xdr:row>
       <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11005,13 +13582,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>83172</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>58</xdr:row>
       <xdr:rowOff>83422</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>335428</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>68</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -11272,6 +13849,82 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>909638</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>202406</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="グラフ 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B919DA8-9BB6-42DD-89A4-0840D3DDB9D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1262062</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>119063</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>564355</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>92869</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="グラフ 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634194E4-11F5-4E2E-B22C-4DD0AB9D8F73}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -11281,13 +13934,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>423862</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11313,6 +13966,262 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>202405</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="グラフ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5E658FA-B30B-EFD3-633E-A0A0BB7419D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>346914</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>274193</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFDC67F2-7CD0-8500-5125-DA53229D515D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1023189" y="16554450"/>
+          <a:ext cx="11185829" cy="5504450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>184123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207458</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>58501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6C14A64-EC63-BC8A-3B0A-64EE5030D6F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="726282" y="23044123"/>
+          <a:ext cx="12804270" cy="6303753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>153436</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>104196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0497FEE6-7CE1-C46D-F6E5-CF5C07DA0A83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678656" y="32623125"/>
+          <a:ext cx="10761905" cy="4628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>196462</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>75625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{494CAC0C-66B6-EE37-A135-E73482C2FBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678656" y="36671250"/>
+          <a:ext cx="9447619" cy="4600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>343965</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>142321</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C71C65-E4CF-65DB-ABCA-7AD69B00479E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11965781" y="30480000"/>
+          <a:ext cx="10523809" cy="4428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -12845,9 +15754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E506D57-AEBC-4999-BC25-5C9CE86AF421}">
   <dimension ref="A2:Q89"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -12863,17 +15770,17 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14">
-      <c r="E2" s="44"/>
+      <c r="E2" s="37"/>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="F3" s="45" t="s">
-        <v>120</v>
+      <c r="F3" s="38" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:14">
@@ -12893,19 +15800,19 @@
       <c r="B8" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E8" s="44" t="s">
+      <c r="E8" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="44" t="s">
+      <c r="F8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="44" t="s">
+      <c r="G8" s="37" t="s">
         <v>14</v>
       </c>
       <c r="H8" t="s">
@@ -13537,13 +16444,13 @@
       </c>
     </row>
     <row r="45" spans="3:10" ht="19.5" thickBot="1">
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="54"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="46"/>
     </row>
     <row r="46" spans="3:10" ht="19.5" thickTop="1">
       <c r="C46" s="28" t="s">
@@ -13636,21 +16543,21 @@
     </row>
     <row r="52" spans="1:17">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:17">
       <c r="B54" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:17">
       <c r="I55" s="5"/>
-      <c r="M55" s="51"/>
-      <c r="N55" s="51"/>
-      <c r="O55" s="51"/>
-      <c r="P55" s="51"/>
-      <c r="Q55" s="51"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
     </row>
     <row r="56" spans="1:17">
       <c r="B56" t="s">
@@ -13659,26 +16566,26 @@
       <c r="C56" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="44" t="s">
+      <c r="D56" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E56" s="44" t="s">
+      <c r="E56" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="44" t="s">
+      <c r="F56" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="44" t="s">
+      <c r="G56" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H56" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" s="44" t="s">
-        <v>122</v>
+      <c r="H56" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="J56" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="K56" t="s">
         <v>46</v>
@@ -13686,19 +16593,19 @@
       <c r="L56" t="s">
         <v>47</v>
       </c>
-      <c r="M56" s="51" t="s">
+      <c r="M56" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="N56" s="51" t="s">
+      <c r="N56" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="O56" s="51" t="s">
+      <c r="O56" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="P56" s="51" t="s">
+      <c r="P56" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="Q56" s="51" t="s">
+      <c r="Q56" s="42" t="s">
         <v>65</v>
       </c>
     </row>
@@ -13719,10 +16626,10 @@
         <v>45189</v>
       </c>
       <c r="H57" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J57" s="21">
         <v>100</v>
@@ -13747,7 +16654,7 @@
       <c r="P57" s="23">
         <v>480</v>
       </c>
-      <c r="Q57" s="51" t="str">
+      <c r="Q57" s="42" t="str">
         <f>IF(M57&lt;=P57,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -13772,10 +16679,10 @@
         <v>45189</v>
       </c>
       <c r="H58" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J58" s="21">
         <v>160</v>
@@ -13800,7 +16707,7 @@
       <c r="P58" s="23">
         <v>320</v>
       </c>
-      <c r="Q58" s="51" t="str">
+      <c r="Q58" s="42" t="str">
         <f t="shared" ref="Q58:Q61" si="7">IF(M58&lt;=P58,"OK","NG")</f>
         <v>OK</v>
       </c>
@@ -13822,10 +16729,10 @@
         <v>45189</v>
       </c>
       <c r="H59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J59" s="21">
         <v>80</v>
@@ -13850,7 +16757,7 @@
       <c r="P59" s="23">
         <v>160</v>
       </c>
-      <c r="Q59" s="51" t="str">
+      <c r="Q59" s="42" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
@@ -13872,10 +16779,10 @@
         <v>45189</v>
       </c>
       <c r="H60" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J60" s="21">
         <v>120</v>
@@ -13900,7 +16807,7 @@
       <c r="P60" s="23">
         <v>220</v>
       </c>
-      <c r="Q60" s="51" t="str">
+      <c r="Q60" s="42" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
@@ -13925,10 +16832,10 @@
         <v>45189</v>
       </c>
       <c r="H61" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J61" s="21">
         <v>40</v>
@@ -13953,7 +16860,7 @@
       <c r="P61" s="23">
         <v>80</v>
       </c>
-      <c r="Q61" s="51" t="str">
+      <c r="Q61" s="42" t="str">
         <f t="shared" si="7"/>
         <v>OK</v>
       </c>
@@ -13975,10 +16882,10 @@
         <v>45189</v>
       </c>
       <c r="H62" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J62" s="21">
         <v>320</v>
@@ -14003,80 +16910,80 @@
       <c r="P62" s="23">
         <v>160</v>
       </c>
-      <c r="Q62" s="51" t="str">
+      <c r="Q62" s="42" t="str">
         <f>IF(M62&lt;=P62,"OK","NG")</f>
         <v>NG</v>
       </c>
     </row>
     <row r="65" spans="2:9">
       <c r="C65" s="12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="2:9">
       <c r="C66" s="12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="2:9">
       <c r="C67" s="22" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="69" spans="2:9">
       <c r="B69" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="2:9">
       <c r="C70" s="22" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F70" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="2:9">
-      <c r="C71" s="43" t="s">
-        <v>168</v>
+      <c r="C71" s="36" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="2:9">
       <c r="C72" s="22" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="2:9">
       <c r="C73" s="22" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="2:9">
       <c r="C75" s="12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="76" spans="2:9">
       <c r="C76" s="12" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="I76" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77" spans="2:9" ht="19.5" thickBot="1">
-      <c r="C77" s="52" t="s">
-        <v>164</v>
-      </c>
-      <c r="D77" s="53"/>
-      <c r="E77" s="53"/>
-      <c r="F77" s="53"/>
-      <c r="G77" s="54"/>
+      <c r="C77" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D77" s="45"/>
+      <c r="E77" s="45"/>
+      <c r="F77" s="45"/>
+      <c r="G77" s="46"/>
       <c r="I77" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="19.5" thickTop="1">
@@ -14114,7 +17021,7 @@
         <v>OK</v>
       </c>
       <c r="I79" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="2:9">
@@ -14135,7 +17042,7 @@
         <v>NG</v>
       </c>
       <c r="I80" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="3:13">
@@ -14174,17 +17081,17 @@
         <v>OK</v>
       </c>
       <c r="I82" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
     </row>
     <row r="83" spans="3:13">
       <c r="I83" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
     </row>
     <row r="84" spans="3:13">
       <c r="C84" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
     </row>
     <row r="85" spans="3:13">
@@ -14218,7 +17125,7 @@
       <c r="L85" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M85" s="36"/>
+      <c r="M85" s="35"/>
     </row>
     <row r="86" spans="3:13">
       <c r="C86" s="27" t="s">
@@ -14361,9 +17268,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ADE583A-8968-4432-850E-84042B45CDDE}">
-  <dimension ref="B3:M66"/>
+  <dimension ref="B3:M60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -14661,677 +17570,465 @@
     </row>
     <row r="16" spans="2:13">
       <c r="C16" s="33"/>
-      <c r="E16" s="35"/>
+      <c r="E16" s="34"/>
     </row>
     <row r="17" spans="3:12">
-      <c r="C17" s="43" t="s">
-        <v>116</v>
+      <c r="C17" s="40" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="3:12">
-      <c r="C18" s="47" t="s">
-        <v>117</v>
+      <c r="C18" s="40" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="3:12">
-      <c r="C19" s="43"/>
+      <c r="C19" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="F19" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="20" spans="3:12">
-      <c r="C20" t="s">
-        <v>130</v>
+      <c r="C20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="27">
+        <v>40</v>
+      </c>
+      <c r="E20" s="27">
+        <v>20</v>
+      </c>
+      <c r="F20" s="27">
+        <v>15</v>
+      </c>
+      <c r="G20" s="31" t="str">
+        <f>IF(E20+F20&gt;D20,"NG","OK")</f>
+        <v>OK</v>
       </c>
     </row>
     <row r="21" spans="3:12">
       <c r="C21" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F21" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="I21" t="s">
-        <v>111</v>
+        <v>51</v>
+      </c>
+      <c r="D21" s="27">
+        <v>20</v>
+      </c>
+      <c r="E21" s="27">
+        <v>30</v>
+      </c>
+      <c r="F21" s="27">
+        <v>10</v>
+      </c>
+      <c r="G21" s="32" t="str">
+        <f t="shared" ref="G21:G23" si="3">IF(E21+F21&gt;D21,"NG","OK")</f>
+        <v>NG</v>
       </c>
     </row>
     <row r="22" spans="3:12">
       <c r="C22" s="27" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D22" s="27">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E22" s="27">
+        <v>5</v>
+      </c>
+      <c r="F22" s="27">
         <v>20</v>
       </c>
-      <c r="F22" s="27">
-        <v>15</v>
-      </c>
-      <c r="G22" s="31" t="str">
-        <f>IF(E22+F22&gt;D22,"NG","OK")</f>
-        <v>OK</v>
+      <c r="G22" s="32" t="str">
+        <f t="shared" si="3"/>
+        <v>NG</v>
       </c>
     </row>
     <row r="23" spans="3:12">
       <c r="C23" s="27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D23" s="27">
+        <v>30</v>
+      </c>
+      <c r="E23" s="27">
         <v>20</v>
       </c>
-      <c r="E23" s="27">
-        <v>30</v>
-      </c>
       <c r="F23" s="27">
+        <f t="shared" ref="F23" si="4">D23-E23</f>
         <v>10</v>
       </c>
-      <c r="G23" s="32" t="str">
-        <f t="shared" ref="G23:G25" si="3">IF(E23+F23&gt;D23,"NG","OK")</f>
-        <v>NG</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12">
-      <c r="C24" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="27">
-        <v>10</v>
-      </c>
-      <c r="E24" s="27">
-        <v>5</v>
-      </c>
-      <c r="F24" s="27">
-        <v>20</v>
-      </c>
-      <c r="G24" s="32" t="str">
-        <f t="shared" si="3"/>
-        <v>NG</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12">
-      <c r="C25" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" s="27">
-        <v>30</v>
-      </c>
-      <c r="E25" s="27">
-        <v>20</v>
-      </c>
-      <c r="F25" s="27">
-        <f t="shared" ref="F25" si="4">D25-E25</f>
-        <v>10</v>
-      </c>
-      <c r="G25" s="31" t="str">
+      <c r="G23" s="31" t="str">
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
     </row>
+    <row r="27" spans="3:12">
+      <c r="C27" t="s">
+        <v>168</v>
+      </c>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+    </row>
     <row r="28" spans="3:12">
-      <c r="C28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C29" s="29" t="s">
+      <c r="C28" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12">
+      <c r="C29" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D29" s="27">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12">
+      <c r="C30" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D30" s="27">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12">
+      <c r="C31" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D31" s="27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12">
+      <c r="C32" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="27">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="C40" t="s">
         <v>112</v>
       </c>
-      <c r="D29" s="34">
-        <v>45182</v>
-      </c>
-      <c r="E29" s="34">
-        <v>45183</v>
-      </c>
-      <c r="F29" s="34">
-        <v>45184</v>
-      </c>
-      <c r="G29" s="37">
-        <v>45185</v>
-      </c>
-      <c r="H29" s="40">
-        <v>45186</v>
-      </c>
-      <c r="I29" s="34">
-        <v>45187</v>
-      </c>
-      <c r="J29" s="34">
-        <v>45188</v>
-      </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" spans="3:12" ht="19.5" hidden="1" thickTop="1">
-      <c r="C30" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="D30" s="28">
-        <v>8</v>
-      </c>
-      <c r="E30" s="28">
-        <v>8</v>
-      </c>
-      <c r="F30" s="28">
-        <v>8</v>
-      </c>
-      <c r="G30" s="38">
-        <v>0</v>
-      </c>
-      <c r="H30" s="41">
-        <v>0</v>
-      </c>
-      <c r="I30" s="28">
-        <v>8</v>
-      </c>
-      <c r="J30" s="28">
-        <v>8</v>
-      </c>
-      <c r="K30" t="s">
+    </row>
+    <row r="41" spans="2:7">
+      <c r="C41" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="C43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="21">
+        <v>100</v>
+      </c>
+      <c r="E43" s="19">
+        <v>80</v>
+      </c>
+      <c r="F43" s="19">
+        <f>IF(D43&lt;E43,0,D43-E43)</f>
+        <v>20</v>
+      </c>
+      <c r="G43">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="21">
+        <v>160</v>
+      </c>
+      <c r="E44" s="19">
+        <v>20</v>
+      </c>
+      <c r="F44" s="19">
+        <f t="shared" ref="F44:F45" si="5">IF(D44&lt;E44,0,D44-E44)</f>
+        <v>140</v>
+      </c>
+      <c r="G44">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="21">
+        <v>80</v>
+      </c>
+      <c r="E45" s="19">
+        <v>40</v>
+      </c>
+      <c r="F45" s="19">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="G45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="C46" s="33" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" ht="19.5" thickTop="1">
-      <c r="C31" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="27">
-        <v>10</v>
-      </c>
-      <c r="E31" s="27">
-        <v>7</v>
-      </c>
-      <c r="F31" s="27">
-        <v>4</v>
-      </c>
-      <c r="G31" s="39">
-        <v>0</v>
-      </c>
-      <c r="H31" s="42">
-        <v>0</v>
-      </c>
-      <c r="I31" s="27">
-        <v>8</v>
-      </c>
-      <c r="J31" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" hidden="1">
-      <c r="C32" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="27">
-        <v>120</v>
-      </c>
-      <c r="E32" s="27">
-        <v>110</v>
-      </c>
-      <c r="F32" s="27">
-        <v>108</v>
-      </c>
-      <c r="G32" s="39">
-        <v>108</v>
-      </c>
-      <c r="H32" s="42">
-        <v>108</v>
-      </c>
-      <c r="I32" s="27">
-        <v>110</v>
-      </c>
-      <c r="J32" s="27">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" hidden="1">
-      <c r="C33" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F33" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H33" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I33" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J33" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="C34" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="27">
-        <v>8</v>
-      </c>
-      <c r="E34" s="27">
-        <v>8</v>
-      </c>
-      <c r="F34" s="27">
-        <v>8</v>
-      </c>
-      <c r="G34" s="39">
-        <v>0</v>
-      </c>
-      <c r="H34" s="42">
-        <v>0</v>
-      </c>
-      <c r="I34" s="27">
-        <v>8</v>
-      </c>
-      <c r="J34" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" spans="2:10">
-      <c r="C35" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D35" s="27">
-        <v>10</v>
-      </c>
-      <c r="E35" s="27">
-        <v>7</v>
-      </c>
-      <c r="F35" s="27">
-        <v>4</v>
-      </c>
-      <c r="G35" s="39">
-        <v>0</v>
-      </c>
-      <c r="H35" s="42">
-        <v>0</v>
-      </c>
-      <c r="I35" s="27">
-        <v>8</v>
-      </c>
-      <c r="J35" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10">
-      <c r="C36" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="27">
-        <v>110</v>
-      </c>
-      <c r="E36" s="27">
-        <f>D36-7</f>
-        <v>103</v>
-      </c>
-      <c r="F36" s="27">
-        <f t="shared" ref="F36:J36" si="5">E36-7</f>
-        <v>96</v>
-      </c>
-      <c r="G36" s="39">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="H36" s="42">
-        <v>89</v>
-      </c>
-      <c r="I36" s="27">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="J36" s="27">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
-      <c r="C37" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D37" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F37" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G37" s="39" t="s">
-        <v>66</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="I37" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="J37" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
-      <c r="C38" s="36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
-      <c r="B45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10">
-      <c r="C46" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="47" spans="2:10">
-      <c r="C47" s="12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="2:10">
-      <c r="D48" t="s">
-        <v>45</v>
-      </c>
-      <c r="E48" t="s">
-        <v>46</v>
-      </c>
-      <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>106</v>
-      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="3:12">
-      <c r="C49" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="21">
-        <v>100</v>
-      </c>
-      <c r="E49" s="19">
-        <v>80</v>
-      </c>
-      <c r="F49" s="19">
-        <f>IF(D49&lt;E49,0,D49-E49)</f>
-        <v>20</v>
-      </c>
-      <c r="G49">
-        <v>100</v>
-      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="3:12">
-      <c r="C50" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="21">
-        <v>160</v>
-      </c>
-      <c r="E50" s="19">
-        <v>20</v>
-      </c>
-      <c r="F50" s="19">
-        <f t="shared" ref="F50:F51" si="6">IF(D50&lt;E50,0,D50-E50)</f>
-        <v>140</v>
-      </c>
-      <c r="G50">
-        <v>100</v>
-      </c>
+      <c r="C50" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="3:12">
       <c r="C51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="21">
-        <v>80</v>
-      </c>
-      <c r="E51" s="19">
-        <v>40</v>
-      </c>
-      <c r="F51" s="19">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="G51">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="52" spans="3:12">
-      <c r="C52" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" ht="19.5" thickBot="1">
+      <c r="C52" s="29"/>
+      <c r="D52" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="G52" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="H52" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+    </row>
+    <row r="53" spans="3:12" ht="19.5" thickTop="1">
+      <c r="C53" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="28">
+        <v>8</v>
+      </c>
+      <c r="E53" s="28">
+        <v>8</v>
+      </c>
+      <c r="F53" s="28">
+        <v>8</v>
+      </c>
+      <c r="G53" s="28">
+        <v>8</v>
+      </c>
+      <c r="H53" s="28">
+        <v>8</v>
+      </c>
+      <c r="I53" t="s">
         <v>115</v>
       </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-    </row>
-    <row r="53" spans="3:12">
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="3:12">
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
+      <c r="C54" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="27">
+        <v>10</v>
+      </c>
+      <c r="E54" s="27">
+        <v>7</v>
+      </c>
+      <c r="F54" s="27">
+        <v>4</v>
+      </c>
+      <c r="G54" s="27">
+        <v>12</v>
+      </c>
+      <c r="H54" s="27">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="3:12">
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
+      <c r="C55" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="27">
+        <v>10</v>
+      </c>
+      <c r="E55" s="27">
+        <v>7</v>
+      </c>
+      <c r="F55" s="27">
+        <v>4</v>
+      </c>
+      <c r="G55" s="27">
+        <v>12</v>
+      </c>
+      <c r="H55" s="27">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="3:12">
-      <c r="C56" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
+      <c r="C56" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="D56" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="G56" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="57" spans="3:12">
-      <c r="C57" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" ht="19.5" thickBot="1">
-      <c r="C58" s="29"/>
-      <c r="D58" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="E58" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="H58" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="24"/>
-      <c r="L58" s="24"/>
-    </row>
-    <row r="59" spans="3:12" ht="19.5" thickTop="1">
-      <c r="C59" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="D59" s="28">
+      <c r="C57" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D57" s="27">
         <v>8</v>
       </c>
-      <c r="E59" s="28">
+      <c r="E57" s="27">
         <v>8</v>
       </c>
-      <c r="F59" s="28">
+      <c r="F57" s="27">
         <v>8</v>
       </c>
-      <c r="G59" s="28">
+      <c r="G57" s="27">
         <v>8</v>
       </c>
-      <c r="H59" s="28">
+      <c r="H57" s="27">
         <v>8</v>
       </c>
-      <c r="I59" t="s">
-        <v>118</v>
+    </row>
+    <row r="58" spans="3:12">
+      <c r="C58" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" s="27">
+        <v>10</v>
+      </c>
+      <c r="E58" s="27">
+        <v>7</v>
+      </c>
+      <c r="F58" s="27">
+        <v>4</v>
+      </c>
+      <c r="G58" s="27">
+        <v>12</v>
+      </c>
+      <c r="H58" s="27">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12">
+      <c r="C59" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D59" s="27">
+        <v>10</v>
+      </c>
+      <c r="E59" s="27">
+        <v>7</v>
+      </c>
+      <c r="F59" s="27">
+        <v>4</v>
+      </c>
+      <c r="G59" s="27">
+        <v>12</v>
+      </c>
+      <c r="H59" s="27">
+        <v>8</v>
       </c>
     </row>
     <row r="60" spans="3:12">
       <c r="C60" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D60" s="27">
-        <v>10</v>
-      </c>
-      <c r="E60" s="27">
-        <v>7</v>
-      </c>
-      <c r="F60" s="27">
-        <v>4</v>
-      </c>
-      <c r="G60" s="27">
-        <v>12</v>
-      </c>
-      <c r="H60" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="61" spans="3:12">
-      <c r="C61" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D61" s="27">
-        <v>10</v>
-      </c>
-      <c r="E61" s="27">
-        <v>7</v>
-      </c>
-      <c r="F61" s="27">
-        <v>4</v>
-      </c>
-      <c r="G61" s="27">
-        <v>12</v>
-      </c>
-      <c r="H61" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="62" spans="3:12">
-      <c r="C62" s="27" t="s">
-        <v>72</v>
-      </c>
-      <c r="D62" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="D60" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E62" s="32" t="s">
+      <c r="E60" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="32" t="s">
+      <c r="F60" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="G62" s="31" t="s">
+      <c r="G60" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="H62" s="31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" spans="3:12">
-      <c r="C63" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D63" s="27">
-        <v>8</v>
-      </c>
-      <c r="E63" s="27">
-        <v>8</v>
-      </c>
-      <c r="F63" s="27">
-        <v>8</v>
-      </c>
-      <c r="G63" s="27">
-        <v>8</v>
-      </c>
-      <c r="H63" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="3:12">
-      <c r="C64" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="D64" s="27">
-        <v>10</v>
-      </c>
-      <c r="E64" s="27">
-        <v>7</v>
-      </c>
-      <c r="F64" s="27">
-        <v>4</v>
-      </c>
-      <c r="G64" s="27">
-        <v>12</v>
-      </c>
-      <c r="H64" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8">
-      <c r="C65" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="D65" s="27">
-        <v>10</v>
-      </c>
-      <c r="E65" s="27">
-        <v>7</v>
-      </c>
-      <c r="F65" s="27">
-        <v>4</v>
-      </c>
-      <c r="G65" s="27">
-        <v>12</v>
-      </c>
-      <c r="H65" s="27">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8">
-      <c r="C66" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D66" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F66" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="G66" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="H66" s="31" t="s">
+      <c r="H60" s="31" t="s">
         <v>66</v>
       </c>
     </row>
@@ -15344,9 +18041,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C56C2B-14A9-4DA6-ADA7-F89FC8A213EA}">
-  <dimension ref="B2:U52"/>
+  <dimension ref="B2:Q66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -15367,14 +18064,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="E2" s="44"/>
+      <c r="E2" s="37"/>
       <c r="F2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="F3" s="45" t="s">
-        <v>120</v>
+      <c r="F3" s="38" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:17">
@@ -15404,23 +18101,23 @@
       <c r="C13" t="s">
         <v>76</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="E13" s="44" t="s">
+      <c r="E13" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="44" t="s">
+      <c r="F13" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="44" t="s">
+      <c r="G13" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="I13" s="44" t="s">
-        <v>122</v>
+      <c r="H13" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>119</v>
       </c>
       <c r="J13" t="s">
         <v>45</v>
@@ -15437,7 +18134,7 @@
       <c r="N13" t="s">
         <v>106</v>
       </c>
-      <c r="O13" s="46" t="s">
+      <c r="O13" s="39" t="s">
         <v>108</v>
       </c>
       <c r="P13" t="s">
@@ -15464,10 +18161,10 @@
         <v>45189</v>
       </c>
       <c r="H14" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I14" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J14" s="21">
         <v>100</v>
@@ -15517,10 +18214,10 @@
         <v>45189</v>
       </c>
       <c r="H15" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J15" s="21">
         <v>160</v>
@@ -15567,10 +18264,10 @@
         <v>45189</v>
       </c>
       <c r="H16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="J16" s="21">
         <v>80</v>
@@ -15600,7 +18297,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:17">
       <c r="C17" s="12" t="s">
         <v>44</v>
       </c>
@@ -15617,10 +18314,10 @@
         <v>45189</v>
       </c>
       <c r="H17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="J17" s="21">
         <v>120</v>
@@ -15650,7 +18347,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:17">
       <c r="B18" t="s">
         <v>98</v>
       </c>
@@ -15670,10 +18367,10 @@
         <v>45189</v>
       </c>
       <c r="H18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="I18" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J18" s="21">
         <v>40</v>
@@ -15703,7 +18400,7 @@
         <v>OK</v>
       </c>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:17">
       <c r="C19" s="12" t="s">
         <v>44</v>
       </c>
@@ -15720,10 +18417,10 @@
         <v>45189</v>
       </c>
       <c r="H19" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="I19" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="J19" s="21">
         <v>320</v>
@@ -15753,29 +18450,18 @@
         <v>NG</v>
       </c>
     </row>
-    <row r="21" spans="2:21">
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="G21" s="35"/>
-    </row>
-    <row r="22" spans="2:21">
-      <c r="C22" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="23" spans="2:21">
+    <row r="22" spans="2:17">
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="G22" s="34"/>
+    </row>
+    <row r="23" spans="2:17">
       <c r="C23" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="O23" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="24" spans="2:21">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17">
       <c r="C24" s="27" t="s">
         <v>104</v>
       </c>
@@ -15791,14 +18477,9 @@
       <c r="G24" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="O24" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q24" s="50" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="25" spans="2:21">
+      <c r="Q24" s="41"/>
+    </row>
+    <row r="25" spans="2:17">
       <c r="C25" s="27" t="s">
         <v>50</v>
       </c>
@@ -15815,17 +18496,9 @@
         <f>IF(E25+F25&gt;D25,"NG","OK")</f>
         <v>OK</v>
       </c>
-      <c r="O25" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q25" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="U25" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="26" spans="2:21">
+      <c r="Q25" s="34"/>
+    </row>
+    <row r="26" spans="2:17">
       <c r="C26" s="27" t="s">
         <v>51</v>
       </c>
@@ -15842,11 +18515,8 @@
         <f t="shared" ref="G26:G28" si="3">IF(E26+F26&gt;D26,"NG","OK")</f>
         <v>NG</v>
       </c>
-      <c r="U26" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="2:21">
+    </row>
+    <row r="27" spans="2:17">
       <c r="C27" s="27" t="s">
         <v>52</v>
       </c>
@@ -15863,11 +18533,8 @@
         <f t="shared" si="3"/>
         <v>NG</v>
       </c>
-      <c r="O27" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="2:21">
+    </row>
+    <row r="28" spans="2:17">
       <c r="C28" s="27" t="s">
         <v>53</v>
       </c>
@@ -15885,77 +18552,63 @@
         <f t="shared" si="3"/>
         <v>OK</v>
       </c>
-      <c r="O28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="29" spans="2:21">
-      <c r="O29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="36" spans="3:16">
-      <c r="C36" t="s">
-        <v>134</v>
-      </c>
-      <c r="O36" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="37" spans="3:16">
-      <c r="C37" t="s">
-        <v>135</v>
-      </c>
-      <c r="O37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="39" spans="3:16">
-      <c r="O39" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="42" spans="3:16">
-      <c r="O42" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="43" spans="3:16">
-      <c r="O43" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" spans="3:16">
-      <c r="O44" t="s">
-        <v>141</v>
-      </c>
-      <c r="P44" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" spans="3:16">
-      <c r="O45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="48" spans="3:16">
-      <c r="O48" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="50" spans="15:16">
       <c r="O50" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
     </row>
     <row r="51" spans="15:16">
       <c r="O51" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="52" spans="15:16">
-      <c r="P52" t="s">
-        <v>150</v>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="15:16">
+      <c r="O53" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="15:16">
+      <c r="O56" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="15:16">
+      <c r="O57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="15:16">
+      <c r="O58" t="s">
+        <v>134</v>
+      </c>
+      <c r="P58" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="59" spans="15:16">
+      <c r="O59" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="15:16">
+      <c r="O62" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="15:16">
+      <c r="O64" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="65" spans="15:16">
+      <c r="O65" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="66" spans="15:16">
+      <c r="P66" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -15967,9 +18620,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E19204B2-CEB3-4B45-96C5-C86788F564D1}">
-  <dimension ref="G3:J7"/>
+  <dimension ref="A2:J153"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.75"/>
   <cols>
@@ -15979,48 +18632,192 @@
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="7:10">
-      <c r="G3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="7:10">
-      <c r="G5" t="s">
-        <v>153</v>
-      </c>
-      <c r="H5" s="2">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="43"/>
+      <c r="B7" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="43"/>
+      <c r="B8" t="s">
+        <v>172</v>
+      </c>
+      <c r="D8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="43"/>
+      <c r="B9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="G10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="38" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="G12" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="2">
         <v>45215</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I12" s="2">
         <v>45217</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J12" s="2">
         <v>45219</v>
       </c>
     </row>
-    <row r="6" spans="7:10">
-      <c r="G6" t="s">
-        <v>152</v>
-      </c>
-      <c r="H6">
+    <row r="13" spans="1:10">
+      <c r="G13" t="s">
+        <v>142</v>
+      </c>
+      <c r="H13">
         <v>80</v>
       </c>
-      <c r="I6">
+      <c r="I13">
         <v>40</v>
       </c>
-      <c r="J6">
+      <c r="J13">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="7:10">
-      <c r="G7" t="s">
-        <v>151</v>
-      </c>
-      <c r="H7">
+    <row r="14" spans="1:10">
+      <c r="G14" t="s">
+        <v>141</v>
+      </c>
+      <c r="H14">
         <v>80</v>
       </c>
-      <c r="I7">
+      <c r="I14">
         <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="B39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="B40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="B41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+      <c r="I41" t="s">
+        <v>180</v>
+      </c>
+      <c r="J41" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="G42" t="s">
+        <v>182</v>
+      </c>
+      <c r="H42">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="I43">
+        <v>180</v>
+      </c>
+      <c r="J43">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="G45" t="s">
+        <v>183</v>
+      </c>
+      <c r="H45">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="I46">
+        <v>80</v>
+      </c>
+      <c r="J46">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
